--- a/PCB/BOM/SHIELD_008.xlsx
+++ b/PCB/BOM/SHIELD_008.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmt87\Documents\miroculus\Miriam\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmt87\Documents\Miriam\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC2B830-10D3-404D-A57D-F96C10F4C7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E602206-001F-4D12-B95C-D5A16F5F9D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LED_002" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LED_002!$B$2:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LED_002!$B$2:$G$17</definedName>
     <definedName name="MV255_v7.1" localSheetId="0">LED_002!#REF!</definedName>
-    <definedName name="MV255_v7.1_1" localSheetId="0">LED_002!$B$3:$F$18</definedName>
+    <definedName name="MV255_v7.1_1" localSheetId="0">LED_002!$B$3:$F$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>PCB:</t>
   </si>
@@ -127,9 +127,6 @@
     <t>JP1, JP2, JP3, JP4, JP6</t>
   </si>
   <si>
-    <t>ATX</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>PIN HEADER</t>
   </si>
   <si>
-    <t>Mini FIT connector 20 pol</t>
-  </si>
-  <si>
     <t>.100 (2.54mm) Center Header - 2 Pin"</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>8x1F-H8.5</t>
-  </si>
-  <si>
-    <t>5566-20</t>
   </si>
   <si>
     <t>47u</t>
@@ -479,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,19 +488,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -873,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -894,8 +889,8 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>78</v>
+      <c r="C1" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1">
@@ -917,19 +912,19 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>68</v>
+      <c r="H2" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
+      <c r="D3" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
@@ -941,13 +936,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -960,13 +955,13 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -979,13 +974,13 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -998,13 +993,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1014,76 +1009,76 @@
         <v>21</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="14" t="s">
-        <v>70</v>
+      <c r="H7" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
+      <c r="D8" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>47</v>
+      <c r="D9" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>46</v>
+      <c r="D10" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>57</v>
+      <c r="D11" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>9</v>
@@ -1095,16 +1090,16 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1114,268 +1109,249 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
+      <c r="D13" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="14" t="s">
-        <v>71</v>
+      <c r="H13" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
+      <c r="B14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
+      <c r="B15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="15" t="s">
+      <c r="E22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="14" t="s">
-        <v>76</v>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="8">
+        <v>68710614522</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="8">
-        <v>5</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="8">
-        <v>68710614522</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" xr:uid="{ADCE66C6-DB42-4675-96B0-6792AD635208}"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{ADCE66C6-DB42-4675-96B0-6792AD635208}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{373B085A-9481-453A-9F9D-1CF3FD2734C5}"/>
     <hyperlink ref="H13" r:id="rId3" xr:uid="{3418EAE8-F24C-46E1-9A48-CF7C797870F9}"/>
-    <hyperlink ref="H19" r:id="rId4" xr:uid="{6A38A895-7803-4ACA-992C-D808D5B086A6}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{DD1936B0-D4C0-47B2-B74B-3BFFC6C49C9E}"/>
-    <hyperlink ref="H20" r:id="rId6" xr:uid="{B9E28E83-9BE1-4B82-B9E3-8DF4A68BC1FC}"/>
-    <hyperlink ref="H21" r:id="rId7" xr:uid="{E36C6BCA-30AE-4912-9895-B79A4C2FB550}"/>
-    <hyperlink ref="H22" r:id="rId8" xr:uid="{74454BD9-3D87-4461-B996-7ADCF51E372F}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{3BDB6276-FA6B-4C74-B17E-19A260EF3465}"/>
-    <hyperlink ref="H23" r:id="rId10" xr:uid="{9FD1BFA5-5141-4BEB-B760-B044D01582FB}"/>
-    <hyperlink ref="H24" r:id="rId11" xr:uid="{AA673F08-5E22-4758-9B34-E74A11E1DE27}"/>
+    <hyperlink ref="H18" r:id="rId4" xr:uid="{6A38A895-7803-4ACA-992C-D808D5B086A6}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{DD1936B0-D4C0-47B2-B74B-3BFFC6C49C9E}"/>
+    <hyperlink ref="H19" r:id="rId6" xr:uid="{B9E28E83-9BE1-4B82-B9E3-8DF4A68BC1FC}"/>
+    <hyperlink ref="H20" r:id="rId7" xr:uid="{E36C6BCA-30AE-4912-9895-B79A4C2FB550}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{74454BD9-3D87-4461-B996-7ADCF51E372F}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{3BDB6276-FA6B-4C74-B17E-19A260EF3465}"/>
+    <hyperlink ref="H22" r:id="rId10" xr:uid="{9FD1BFA5-5141-4BEB-B760-B044D01582FB}"/>
+    <hyperlink ref="H23" r:id="rId11" xr:uid="{AA673F08-5E22-4758-9B34-E74A11E1DE27}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="C21" numberStoredAsText="1"/>
+    <ignoredError sqref="C20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>